--- a/data/接口用例数据.xlsx
+++ b/data/接口用例数据.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>用例编号</t>
   </si>
@@ -73,7 +73,13 @@
     <t>/cgi-bin/gettoken</t>
   </si>
   <si>
-    <t>{'corpid':'wwd691b224b33533e0','corpsecret':'dgMsLYz8IMD8zslWYqIdPbY5lnvw0CX30tkxogt7uuI'}</t>
+    <t>{"corpid":"wwd691b224b33533e0","corpsecret":"dgMsLYz8IMD8zslWYqIdPbY5lnvw0CX30tkxogt7uuI"}</t>
+  </si>
+  <si>
+    <t>case3</t>
+  </si>
+  <si>
+    <t>post</t>
   </si>
 </sst>
 </file>
@@ -82,8 +88,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -110,6 +116,88 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -119,125 +207,43 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -248,25 +254,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -278,49 +398,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,103 +434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -445,8 +451,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,9 +474,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -492,11 +500,33 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,40 +545,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -557,133 +563,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1017,13 +1023,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="14" width="16" style="1" customWidth="1"/>
     <col min="15" max="16" width="16" customWidth="1"/>
@@ -1103,9 +1109,72 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
+    <row r="3" customFormat="1" ht="85.5" spans="1:14">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" customFormat="1" ht="85.5" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1" display="/cgi-bin/gettoken"/>
+    <hyperlink ref="G3" r:id="rId1" display="/cgi-bin/gettoken"/>
+    <hyperlink ref="G4" r:id="rId1" display="/cgi-bin/gettoken"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
